--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H2">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32813431927786</v>
+        <v>1.329663666666667</v>
       </c>
       <c r="N2">
-        <v>1.32813431927786</v>
+        <v>3.988991</v>
       </c>
       <c r="O2">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="P2">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="Q2">
-        <v>66.67142337502592</v>
+        <v>68.80754534152979</v>
       </c>
       <c r="R2">
-        <v>66.67142337502592</v>
+        <v>619.267908073768</v>
       </c>
       <c r="S2">
-        <v>0.06491078032341162</v>
+        <v>0.0630661600608161</v>
       </c>
       <c r="T2">
-        <v>0.06491078032341162</v>
+        <v>0.06306616006081608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H3">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I3">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J3">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.998084148248421</v>
+        <v>1.001968</v>
       </c>
       <c r="N3">
-        <v>0.998084148248421</v>
+        <v>3.005904</v>
       </c>
       <c r="O3">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="P3">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="Q3">
-        <v>50.10313327943674</v>
+        <v>51.84992289335467</v>
       </c>
       <c r="R3">
-        <v>50.10313327943674</v>
+        <v>466.649306040192</v>
       </c>
       <c r="S3">
-        <v>0.04878002168218848</v>
+        <v>0.04752350225694851</v>
       </c>
       <c r="T3">
-        <v>0.04878002168218848</v>
+        <v>0.04752350225694851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H4">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I4">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J4">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.146759459793335</v>
+        <v>0.1606046666666666</v>
       </c>
       <c r="N4">
-        <v>0.146759459793335</v>
+        <v>0.481814</v>
       </c>
       <c r="O4">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="P4">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="Q4">
-        <v>7.367223281672066</v>
+        <v>8.310983567319111</v>
       </c>
       <c r="R4">
-        <v>7.367223281672066</v>
+        <v>74.798852105872</v>
       </c>
       <c r="S4">
-        <v>0.007172671405861569</v>
+        <v>0.007617504988991462</v>
       </c>
       <c r="T4">
-        <v>0.007172671405861569</v>
+        <v>0.007617504988991462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H5">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I5">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J5">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.238127718152603</v>
+        <v>0.3165206666666667</v>
       </c>
       <c r="N5">
-        <v>0.238127718152603</v>
+        <v>0.949562</v>
       </c>
       <c r="O5">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="P5">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="Q5">
-        <v>11.95384659807104</v>
+        <v>16.37933762437511</v>
       </c>
       <c r="R5">
-        <v>11.95384659807104</v>
+        <v>147.414038619376</v>
       </c>
       <c r="S5">
-        <v>0.0116381722673376</v>
+        <v>0.01501262576919042</v>
       </c>
       <c r="T5">
-        <v>0.0116381722673376</v>
+        <v>0.01501262576919041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H6">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I6">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J6">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.274543542831231</v>
+        <v>0.287232</v>
       </c>
       <c r="N6">
-        <v>0.274543542831231</v>
+        <v>0.861696</v>
       </c>
       <c r="O6">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="P6">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="Q6">
-        <v>13.78189578666488</v>
+        <v>14.863705280512</v>
       </c>
       <c r="R6">
-        <v>13.78189578666488</v>
+        <v>133.773347524608</v>
       </c>
       <c r="S6">
-        <v>0.01341794676883195</v>
+        <v>0.01362345963171263</v>
       </c>
       <c r="T6">
-        <v>0.01341794676883195</v>
+        <v>0.01362345963171263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H7">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I7">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J7">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.32813431927786</v>
+        <v>1.329663666666667</v>
       </c>
       <c r="N7">
-        <v>1.32813431927786</v>
+        <v>3.988991</v>
       </c>
       <c r="O7">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="P7">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="Q7">
-        <v>85.6886625613493</v>
+        <v>85.79693723989978</v>
       </c>
       <c r="R7">
-        <v>85.6886625613493</v>
+        <v>772.1724351590981</v>
       </c>
       <c r="S7">
-        <v>0.08342581679169869</v>
+        <v>0.07863793643330996</v>
       </c>
       <c r="T7">
-        <v>0.08342581679169869</v>
+        <v>0.07863793643330996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H8">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I8">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J8">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.998084148248421</v>
+        <v>1.001968</v>
       </c>
       <c r="N8">
-        <v>0.998084148248421</v>
+        <v>3.005904</v>
       </c>
       <c r="O8">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="P8">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="Q8">
-        <v>64.39446262753943</v>
+        <v>64.65227844263465</v>
       </c>
       <c r="R8">
-        <v>64.39446262753943</v>
+        <v>581.870505983712</v>
       </c>
       <c r="S8">
-        <v>0.06269394901243514</v>
+        <v>0.0592576136864265</v>
       </c>
       <c r="T8">
-        <v>0.06269394901243514</v>
+        <v>0.05925761368642651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H9">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I9">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J9">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.146759459793335</v>
+        <v>0.1606046666666666</v>
       </c>
       <c r="N9">
-        <v>0.146759459793335</v>
+        <v>0.481814</v>
       </c>
       <c r="O9">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="P9">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="Q9">
-        <v>9.468637053784345</v>
+        <v>10.36306312029911</v>
       </c>
       <c r="R9">
-        <v>9.468637053784345</v>
+        <v>93.26756808269199</v>
       </c>
       <c r="S9">
-        <v>0.009218591544132787</v>
+        <v>0.009498356527923678</v>
       </c>
       <c r="T9">
-        <v>0.009218591544132787</v>
+        <v>0.00949835652792368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H10">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I10">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J10">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.238127718152603</v>
+        <v>0.3165206666666667</v>
       </c>
       <c r="N10">
-        <v>0.238127718152603</v>
+        <v>0.949562</v>
       </c>
       <c r="O10">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="P10">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="Q10">
-        <v>15.36354071354554</v>
+        <v>20.42358865171511</v>
       </c>
       <c r="R10">
-        <v>15.36354071354554</v>
+        <v>183.812297865436</v>
       </c>
       <c r="S10">
-        <v>0.01495782399360478</v>
+        <v>0.01871941957138702</v>
       </c>
       <c r="T10">
-        <v>0.01495782399360478</v>
+        <v>0.01871941957138702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.5180696843527</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H11">
-        <v>64.5180696843527</v>
+        <v>193.575878</v>
       </c>
       <c r="I11">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J11">
-        <v>0.1875414395760202</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.274543542831231</v>
+        <v>0.287232</v>
       </c>
       <c r="N11">
-        <v>0.274543542831231</v>
+        <v>0.861696</v>
       </c>
       <c r="O11">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="P11">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="Q11">
-        <v>17.71301942777443</v>
+        <v>18.533728863232</v>
       </c>
       <c r="R11">
-        <v>17.71301942777443</v>
+        <v>166.803559769088</v>
       </c>
       <c r="S11">
-        <v>0.01724525823414882</v>
+        <v>0.01698725198247814</v>
       </c>
       <c r="T11">
-        <v>0.01724525823414882</v>
+        <v>0.01698725198247814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H12">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I12">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J12">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.32813431927786</v>
+        <v>1.329663666666667</v>
       </c>
       <c r="N12">
-        <v>1.32813431927786</v>
+        <v>3.988991</v>
       </c>
       <c r="O12">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="P12">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="Q12">
-        <v>135.2929751994554</v>
+        <v>135.6779821372492</v>
       </c>
       <c r="R12">
-        <v>135.2929751994554</v>
+        <v>1221.101839235243</v>
       </c>
       <c r="S12">
-        <v>0.1317201905691159</v>
+        <v>0.1243568462691808</v>
       </c>
       <c r="T12">
-        <v>0.1317201905691159</v>
+        <v>0.1243568462691808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H13">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I13">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J13">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.998084148248421</v>
+        <v>1.001968</v>
       </c>
       <c r="N13">
-        <v>0.998084148248421</v>
+        <v>3.005904</v>
       </c>
       <c r="O13">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="P13">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="Q13">
-        <v>101.6717751781043</v>
+        <v>102.2401377236213</v>
       </c>
       <c r="R13">
-        <v>101.6717751781043</v>
+        <v>920.161239512592</v>
       </c>
       <c r="S13">
-        <v>0.09898685118142124</v>
+        <v>0.09370909626718026</v>
       </c>
       <c r="T13">
-        <v>0.09898685118142124</v>
+        <v>0.09370909626718026</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H14">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I14">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J14">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.146759459793335</v>
+        <v>0.1606046666666666</v>
       </c>
       <c r="N14">
-        <v>0.146759459793335</v>
+        <v>0.481814</v>
       </c>
       <c r="O14">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="P14">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="Q14">
-        <v>14.94993666371115</v>
+        <v>16.38799167144689</v>
       </c>
       <c r="R14">
-        <v>14.94993666371115</v>
+        <v>147.491925043022</v>
       </c>
       <c r="S14">
-        <v>0.01455514230090029</v>
+        <v>0.01502055771204775</v>
       </c>
       <c r="T14">
-        <v>0.01455514230090029</v>
+        <v>0.01502055771204775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H15">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I15">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J15">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.238127718152603</v>
+        <v>0.3165206666666667</v>
       </c>
       <c r="N15">
-        <v>0.238127718152603</v>
+        <v>0.949562</v>
       </c>
       <c r="O15">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="P15">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="Q15">
-        <v>24.25734129349222</v>
+        <v>32.2975549642029</v>
       </c>
       <c r="R15">
-        <v>24.25734129349222</v>
+        <v>290.677994677826</v>
       </c>
       <c r="S15">
-        <v>0.02361675920843924</v>
+        <v>0.0296026076912823</v>
       </c>
       <c r="T15">
-        <v>0.02361675920843924</v>
+        <v>0.02960260769128229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>101.866937128029</v>
+        <v>102.0393243333333</v>
       </c>
       <c r="H16">
-        <v>101.866937128029</v>
+        <v>306.117973</v>
       </c>
       <c r="I16">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="J16">
-        <v>0.2961073095902586</v>
+        <v>0.2895524919389952</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.274543542831231</v>
+        <v>0.287232</v>
       </c>
       <c r="N16">
-        <v>0.274543542831231</v>
+        <v>0.861696</v>
       </c>
       <c r="O16">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="P16">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="Q16">
-        <v>27.96690981649535</v>
+        <v>29.308959206912</v>
       </c>
       <c r="R16">
-        <v>27.96690981649535</v>
+        <v>263.780632862208</v>
       </c>
       <c r="S16">
-        <v>0.02722836633038191</v>
+        <v>0.02686338399930409</v>
       </c>
       <c r="T16">
-        <v>0.02722836633038191</v>
+        <v>0.02686338399930409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H17">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I17">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J17">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.32813431927786</v>
+        <v>1.329663666666667</v>
       </c>
       <c r="N17">
-        <v>1.32813431927786</v>
+        <v>3.988991</v>
       </c>
       <c r="O17">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="P17">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="Q17">
-        <v>110.4798192087301</v>
+        <v>112.2906604273947</v>
       </c>
       <c r="R17">
-        <v>110.4798192087301</v>
+        <v>1010.615943846552</v>
       </c>
       <c r="S17">
-        <v>0.1075622944854419</v>
+        <v>0.1029209911311069</v>
       </c>
       <c r="T17">
-        <v>0.1075622944854419</v>
+        <v>0.1029209911311069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H18">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I18">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J18">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.998084148248421</v>
+        <v>1.001968</v>
       </c>
       <c r="N18">
-        <v>0.998084148248421</v>
+        <v>3.005904</v>
       </c>
       <c r="O18">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="P18">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="Q18">
-        <v>83.02485272238164</v>
+        <v>84.61662243443199</v>
       </c>
       <c r="R18">
-        <v>83.02485272238164</v>
+        <v>761.549601909888</v>
       </c>
       <c r="S18">
-        <v>0.08083235220781008</v>
+        <v>0.07755610853094395</v>
       </c>
       <c r="T18">
-        <v>0.08083235220781008</v>
+        <v>0.07755610853094395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H19">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I19">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J19">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.146759459793335</v>
+        <v>0.1606046666666666</v>
       </c>
       <c r="N19">
-        <v>0.146759459793335</v>
+        <v>0.481814</v>
       </c>
       <c r="O19">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="P19">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="Q19">
-        <v>12.20807138991369</v>
+        <v>13.56313219637866</v>
       </c>
       <c r="R19">
-        <v>12.20807138991369</v>
+        <v>122.068189767408</v>
       </c>
       <c r="S19">
-        <v>0.01188568355149364</v>
+        <v>0.01243140794773493</v>
       </c>
       <c r="T19">
-        <v>0.01188568355149364</v>
+        <v>0.01243140794773493</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H20">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I20">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J20">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.238127718152603</v>
+        <v>0.3165206666666667</v>
       </c>
       <c r="N20">
-        <v>0.238127718152603</v>
+        <v>0.949562</v>
       </c>
       <c r="O20">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="P20">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="Q20">
-        <v>19.80846881841853</v>
+        <v>26.73030450476267</v>
       </c>
       <c r="R20">
-        <v>19.80846881841853</v>
+        <v>240.572740542864</v>
       </c>
       <c r="S20">
-        <v>0.01928537149691556</v>
+        <v>0.02449989538217462</v>
       </c>
       <c r="T20">
-        <v>0.01928537149691556</v>
+        <v>0.02449989538217461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.1842213585752</v>
+        <v>84.450424</v>
       </c>
       <c r="H21">
-        <v>83.1842213585752</v>
+        <v>253.351272</v>
       </c>
       <c r="I21">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="J21">
-        <v>0.2418003002867435</v>
+        <v>0.239641244924597</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.274543542831231</v>
+        <v>0.287232</v>
       </c>
       <c r="N21">
-        <v>0.274543542831231</v>
+        <v>0.861696</v>
       </c>
       <c r="O21">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="P21">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="Q21">
-        <v>22.83769083944059</v>
+        <v>24.256864186368</v>
       </c>
       <c r="R21">
-        <v>22.83769083944059</v>
+        <v>218.311777677312</v>
       </c>
       <c r="S21">
-        <v>0.02223459854508231</v>
+        <v>0.02223284193263666</v>
       </c>
       <c r="T21">
-        <v>0.02223459854508231</v>
+        <v>0.02223284193263666</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H22">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I22">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J22">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.32813431927786</v>
+        <v>1.329663666666667</v>
       </c>
       <c r="N22">
-        <v>1.32813431927786</v>
+        <v>3.988991</v>
       </c>
       <c r="O22">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="P22">
-        <v>0.4448393751285134</v>
+        <v>0.4294794544381995</v>
       </c>
       <c r="Q22">
-        <v>58.77233887028525</v>
+        <v>66.00506331529456</v>
       </c>
       <c r="R22">
-        <v>58.77233887028525</v>
+        <v>594.0455698376511</v>
       </c>
       <c r="S22">
-        <v>0.05722029295884533</v>
+        <v>0.06049752054378575</v>
       </c>
       <c r="T22">
-        <v>0.05722029295884533</v>
+        <v>0.06049752054378574</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H23">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I23">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J23">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.998084148248421</v>
+        <v>1.001968</v>
       </c>
       <c r="N23">
-        <v>0.998084148248421</v>
+        <v>3.005904</v>
       </c>
       <c r="O23">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="P23">
-        <v>0.3342938454251442</v>
+        <v>0.3236342247986023</v>
       </c>
       <c r="Q23">
-        <v>44.16702356867864</v>
+        <v>49.73811268054934</v>
       </c>
       <c r="R23">
-        <v>44.16702356867864</v>
+        <v>447.643014124944</v>
       </c>
       <c r="S23">
-        <v>0.04300067134128931</v>
+        <v>0.0455879040571031</v>
       </c>
       <c r="T23">
-        <v>0.04300067134128931</v>
+        <v>0.0455879040571031</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H24">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I24">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J24">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.146759459793335</v>
+        <v>0.1606046666666666</v>
       </c>
       <c r="N24">
-        <v>0.146759459793335</v>
+        <v>0.481814</v>
       </c>
       <c r="O24">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="P24">
-        <v>0.04915495777879009</v>
+        <v>0.05187507664486749</v>
       </c>
       <c r="Q24">
-        <v>6.494370771236249</v>
+        <v>7.972483160828222</v>
       </c>
       <c r="R24">
-        <v>6.494370771236249</v>
+        <v>71.752348447454</v>
       </c>
       <c r="S24">
-        <v>0.006322868976401805</v>
+        <v>0.007307249468169666</v>
       </c>
       <c r="T24">
-        <v>0.006322868976401805</v>
+        <v>0.007307249468169666</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H25">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I25">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J25">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.238127718152603</v>
+        <v>0.3165206666666667</v>
       </c>
       <c r="N25">
-        <v>0.238127718152603</v>
+        <v>0.949562</v>
       </c>
       <c r="O25">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="P25">
-        <v>0.07975743402322343</v>
+        <v>0.1022357206910834</v>
       </c>
       <c r="Q25">
-        <v>10.53758098298534</v>
+        <v>15.71221893752022</v>
       </c>
       <c r="R25">
-        <v>10.53758098298534</v>
+        <v>141.409970437682</v>
       </c>
       <c r="S25">
-        <v>0.01025930705692625</v>
+        <v>0.01440117227704908</v>
       </c>
       <c r="T25">
-        <v>0.01025930705692625</v>
+        <v>0.01440117227704908</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.2518034638554</v>
+        <v>49.64042033333334</v>
       </c>
       <c r="H26">
-        <v>44.2518034638554</v>
+        <v>148.921261</v>
       </c>
       <c r="I26">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="J26">
-        <v>0.1286313580993465</v>
+        <v>0.1408624322272234</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.274543542831231</v>
+        <v>0.287232</v>
       </c>
       <c r="N26">
-        <v>0.274543542831231</v>
+        <v>0.861696</v>
       </c>
       <c r="O26">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="P26">
-        <v>0.09195438764432877</v>
+        <v>0.09277552342724732</v>
       </c>
       <c r="Q26">
-        <v>12.1490468996382</v>
+        <v>14.258317213184</v>
       </c>
       <c r="R26">
-        <v>12.1490468996382</v>
+        <v>128.324854918656</v>
       </c>
       <c r="S26">
-        <v>0.01182821776588378</v>
+        <v>0.0130685858811158</v>
       </c>
       <c r="T26">
-        <v>0.01182821776588378</v>
+        <v>0.0130685858811158</v>
       </c>
     </row>
   </sheetData>
